--- a/merged_data/today.xlsx
+++ b/merged_data/today.xlsx
@@ -28,7 +28,7 @@
     <t>publisher</t>
   </si>
   <si>
-    <t>indicator</t>
+    <t>crawl_type</t>
   </si>
   <si>
     <t>Date</t>
@@ -2538,10 +2538,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2576,18 +2575,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>

--- a/merged_data/today.xlsx
+++ b/merged_data/today.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="830">
   <si>
     <t>headline</t>
   </si>
@@ -2495,9 +2495,6 @@
   </si>
   <si>
     <t>13/02/20</t>
-  </si>
-  <si>
-    <t>Today</t>
   </si>
   <si>
     <t>Today Online</t>
@@ -2920,7 +2917,7 @@
         <v>827</v>
       </c>
       <c r="F2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2940,7 +2937,7 @@
         <v>827</v>
       </c>
       <c r="F3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2960,7 +2957,7 @@
         <v>827</v>
       </c>
       <c r="F4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2980,7 +2977,7 @@
         <v>827</v>
       </c>
       <c r="F5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3000,7 +2997,7 @@
         <v>827</v>
       </c>
       <c r="F6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3017,10 +3014,10 @@
         <v>795</v>
       </c>
       <c r="E7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3040,7 +3037,7 @@
         <v>827</v>
       </c>
       <c r="F8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3060,7 +3057,7 @@
         <v>827</v>
       </c>
       <c r="F9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3080,7 +3077,7 @@
         <v>827</v>
       </c>
       <c r="F10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3100,7 +3097,7 @@
         <v>827</v>
       </c>
       <c r="F11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3120,7 +3117,7 @@
         <v>827</v>
       </c>
       <c r="F12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3140,7 +3137,7 @@
         <v>827</v>
       </c>
       <c r="F13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3157,10 +3154,10 @@
         <v>800</v>
       </c>
       <c r="E14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3177,10 +3174,10 @@
         <v>800</v>
       </c>
       <c r="E15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3197,10 +3194,10 @@
         <v>801</v>
       </c>
       <c r="E16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3217,10 +3214,10 @@
         <v>802</v>
       </c>
       <c r="E17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3237,10 +3234,10 @@
         <v>802</v>
       </c>
       <c r="E18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3257,10 +3254,10 @@
         <v>803</v>
       </c>
       <c r="E19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3277,10 +3274,10 @@
         <v>803</v>
       </c>
       <c r="E20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3297,10 +3294,10 @@
         <v>803</v>
       </c>
       <c r="E21" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3317,10 +3314,10 @@
         <v>804</v>
       </c>
       <c r="E22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F22" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3337,10 +3334,10 @@
         <v>804</v>
       </c>
       <c r="E23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3357,10 +3354,10 @@
         <v>804</v>
       </c>
       <c r="E24" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3380,7 +3377,7 @@
         <v>827</v>
       </c>
       <c r="F25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3397,10 +3394,10 @@
         <v>804</v>
       </c>
       <c r="E26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3420,7 +3417,7 @@
         <v>827</v>
       </c>
       <c r="F27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3437,10 +3434,10 @@
         <v>804</v>
       </c>
       <c r="E28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3457,10 +3454,10 @@
         <v>804</v>
       </c>
       <c r="E29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3477,10 +3474,10 @@
         <v>804</v>
       </c>
       <c r="E30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3497,10 +3494,10 @@
         <v>804</v>
       </c>
       <c r="E31" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3517,10 +3514,10 @@
         <v>804</v>
       </c>
       <c r="E32" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F32" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3537,10 +3534,10 @@
         <v>805</v>
       </c>
       <c r="E33" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F33" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3557,10 +3554,10 @@
         <v>805</v>
       </c>
       <c r="E34" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3577,10 +3574,10 @@
         <v>805</v>
       </c>
       <c r="E35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3597,10 +3594,10 @@
         <v>805</v>
       </c>
       <c r="E36" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3617,10 +3614,10 @@
         <v>805</v>
       </c>
       <c r="E37" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3637,10 +3634,10 @@
         <v>805</v>
       </c>
       <c r="E38" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3657,10 +3654,10 @@
         <v>805</v>
       </c>
       <c r="E39" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F39" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3680,7 +3677,7 @@
         <v>827</v>
       </c>
       <c r="F40" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3697,10 +3694,10 @@
         <v>805</v>
       </c>
       <c r="E41" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F41" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3717,10 +3714,10 @@
         <v>805</v>
       </c>
       <c r="E42" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3737,10 +3734,10 @@
         <v>806</v>
       </c>
       <c r="E43" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F43" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3757,10 +3754,10 @@
         <v>806</v>
       </c>
       <c r="E44" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3777,10 +3774,10 @@
         <v>806</v>
       </c>
       <c r="E45" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F45" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3797,10 +3794,10 @@
         <v>806</v>
       </c>
       <c r="E46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3820,7 +3817,7 @@
         <v>827</v>
       </c>
       <c r="F47" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3840,7 +3837,7 @@
         <v>827</v>
       </c>
       <c r="F48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3860,7 +3857,7 @@
         <v>827</v>
       </c>
       <c r="F49" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3880,7 +3877,7 @@
         <v>827</v>
       </c>
       <c r="F50" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3897,10 +3894,10 @@
         <v>806</v>
       </c>
       <c r="E51" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F51" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3920,7 +3917,7 @@
         <v>827</v>
       </c>
       <c r="F52" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3937,10 +3934,10 @@
         <v>806</v>
       </c>
       <c r="E53" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F53" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3957,10 +3954,10 @@
         <v>807</v>
       </c>
       <c r="E54" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F54" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3977,10 +3974,10 @@
         <v>807</v>
       </c>
       <c r="E55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3997,10 +3994,10 @@
         <v>807</v>
       </c>
       <c r="E56" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F56" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4020,7 +4017,7 @@
         <v>827</v>
       </c>
       <c r="F57" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4037,10 +4034,10 @@
         <v>807</v>
       </c>
       <c r="E58" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F58" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4057,10 +4054,10 @@
         <v>807</v>
       </c>
       <c r="E59" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F59" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4077,10 +4074,10 @@
         <v>807</v>
       </c>
       <c r="E60" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F60" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4097,10 +4094,10 @@
         <v>808</v>
       </c>
       <c r="E61" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F61" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4117,10 +4114,10 @@
         <v>808</v>
       </c>
       <c r="E62" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F62" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4137,10 +4134,10 @@
         <v>808</v>
       </c>
       <c r="E63" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F63" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4157,10 +4154,10 @@
         <v>808</v>
       </c>
       <c r="E64" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F64" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4177,10 +4174,10 @@
         <v>808</v>
       </c>
       <c r="E65" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F65" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4197,10 +4194,10 @@
         <v>808</v>
       </c>
       <c r="E66" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F66" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4217,10 +4214,10 @@
         <v>808</v>
       </c>
       <c r="E67" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F67" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4237,10 +4234,10 @@
         <v>808</v>
       </c>
       <c r="E68" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F68" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4257,10 +4254,10 @@
         <v>808</v>
       </c>
       <c r="E69" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F69" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4277,10 +4274,10 @@
         <v>809</v>
       </c>
       <c r="E70" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F70" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4297,10 +4294,10 @@
         <v>809</v>
       </c>
       <c r="E71" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F71" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4317,10 +4314,10 @@
         <v>809</v>
       </c>
       <c r="E72" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F72" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4337,10 +4334,10 @@
         <v>809</v>
       </c>
       <c r="E73" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F73" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4357,10 +4354,10 @@
         <v>809</v>
       </c>
       <c r="E74" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F74" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4380,7 +4377,7 @@
         <v>827</v>
       </c>
       <c r="F75" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4397,10 +4394,10 @@
         <v>809</v>
       </c>
       <c r="E76" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F76" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4417,10 +4414,10 @@
         <v>809</v>
       </c>
       <c r="E77" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F77" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4437,10 +4434,10 @@
         <v>809</v>
       </c>
       <c r="E78" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F78" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4457,10 +4454,10 @@
         <v>809</v>
       </c>
       <c r="E79" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F79" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4480,7 +4477,7 @@
         <v>827</v>
       </c>
       <c r="F80" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4497,10 +4494,10 @@
         <v>810</v>
       </c>
       <c r="E81" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F81" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4517,10 +4514,10 @@
         <v>810</v>
       </c>
       <c r="E82" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F82" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4537,10 +4534,10 @@
         <v>810</v>
       </c>
       <c r="E83" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F83" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4557,10 +4554,10 @@
         <v>810</v>
       </c>
       <c r="E84" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F84" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4580,7 +4577,7 @@
         <v>827</v>
       </c>
       <c r="F85" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4600,7 +4597,7 @@
         <v>827</v>
       </c>
       <c r="F86" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4620,7 +4617,7 @@
         <v>827</v>
       </c>
       <c r="F87" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4640,7 +4637,7 @@
         <v>827</v>
       </c>
       <c r="F88" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4660,7 +4657,7 @@
         <v>827</v>
       </c>
       <c r="F89" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4680,7 +4677,7 @@
         <v>827</v>
       </c>
       <c r="F90" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4697,10 +4694,10 @@
         <v>811</v>
       </c>
       <c r="E91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4717,10 +4714,10 @@
         <v>811</v>
       </c>
       <c r="E92" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F92" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4737,10 +4734,10 @@
         <v>811</v>
       </c>
       <c r="E93" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F93" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4757,10 +4754,10 @@
         <v>811</v>
       </c>
       <c r="E94" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F94" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4777,10 +4774,10 @@
         <v>811</v>
       </c>
       <c r="E95" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F95" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4797,10 +4794,10 @@
         <v>811</v>
       </c>
       <c r="E96" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F96" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4817,10 +4814,10 @@
         <v>811</v>
       </c>
       <c r="E97" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F97" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4837,10 +4834,10 @@
         <v>811</v>
       </c>
       <c r="E98" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F98" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4860,7 +4857,7 @@
         <v>827</v>
       </c>
       <c r="F99" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4877,10 +4874,10 @@
         <v>811</v>
       </c>
       <c r="E100" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F100" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4897,10 +4894,10 @@
         <v>811</v>
       </c>
       <c r="E101" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F101" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4917,10 +4914,10 @@
         <v>811</v>
       </c>
       <c r="E102" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F102" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4940,7 +4937,7 @@
         <v>827</v>
       </c>
       <c r="F103" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4957,10 +4954,10 @@
         <v>811</v>
       </c>
       <c r="E104" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F104" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4980,7 +4977,7 @@
         <v>827</v>
       </c>
       <c r="F105" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5000,7 +4997,7 @@
         <v>827</v>
       </c>
       <c r="F106" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5020,7 +5017,7 @@
         <v>827</v>
       </c>
       <c r="F107" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5037,10 +5034,10 @@
         <v>811</v>
       </c>
       <c r="E108" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F108" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5060,7 +5057,7 @@
         <v>827</v>
       </c>
       <c r="F109" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5080,7 +5077,7 @@
         <v>827</v>
       </c>
       <c r="F110" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5100,7 +5097,7 @@
         <v>827</v>
       </c>
       <c r="F111" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5117,10 +5114,10 @@
         <v>812</v>
       </c>
       <c r="E112" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F112" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5137,10 +5134,10 @@
         <v>812</v>
       </c>
       <c r="E113" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F113" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5157,10 +5154,10 @@
         <v>812</v>
       </c>
       <c r="E114" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F114" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5177,10 +5174,10 @@
         <v>812</v>
       </c>
       <c r="E115" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F115" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5197,10 +5194,10 @@
         <v>812</v>
       </c>
       <c r="E116" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F116" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5217,10 +5214,10 @@
         <v>812</v>
       </c>
       <c r="E117" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F117" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5237,10 +5234,10 @@
         <v>812</v>
       </c>
       <c r="E118" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F118" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5257,10 +5254,10 @@
         <v>812</v>
       </c>
       <c r="E119" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F119" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5277,10 +5274,10 @@
         <v>812</v>
       </c>
       <c r="E120" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F120" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5297,10 +5294,10 @@
         <v>812</v>
       </c>
       <c r="E121" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F121" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5317,10 +5314,10 @@
         <v>812</v>
       </c>
       <c r="E122" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F122" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5337,10 +5334,10 @@
         <v>812</v>
       </c>
       <c r="E123" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F123" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5360,7 +5357,7 @@
         <v>827</v>
       </c>
       <c r="F124" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5377,10 +5374,10 @@
         <v>812</v>
       </c>
       <c r="E125" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F125" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5400,7 +5397,7 @@
         <v>827</v>
       </c>
       <c r="F126" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5420,7 +5417,7 @@
         <v>827</v>
       </c>
       <c r="F127" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5437,10 +5434,10 @@
         <v>812</v>
       </c>
       <c r="E128" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F128" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5457,10 +5454,10 @@
         <v>812</v>
       </c>
       <c r="E129" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F129" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5480,7 +5477,7 @@
         <v>827</v>
       </c>
       <c r="F130" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5497,10 +5494,10 @@
         <v>812</v>
       </c>
       <c r="E131" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F131" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5517,10 +5514,10 @@
         <v>812</v>
       </c>
       <c r="E132" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F132" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5537,10 +5534,10 @@
         <v>812</v>
       </c>
       <c r="E133" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F133" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5557,10 +5554,10 @@
         <v>812</v>
       </c>
       <c r="E134" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F134" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5577,10 +5574,10 @@
         <v>812</v>
       </c>
       <c r="E135" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F135" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5600,7 +5597,7 @@
         <v>827</v>
       </c>
       <c r="F136" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5617,10 +5614,10 @@
         <v>813</v>
       </c>
       <c r="E137" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F137" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5637,10 +5634,10 @@
         <v>813</v>
       </c>
       <c r="E138" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F138" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5657,10 +5654,10 @@
         <v>813</v>
       </c>
       <c r="E139" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F139" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5677,10 +5674,10 @@
         <v>813</v>
       </c>
       <c r="E140" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F140" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5697,10 +5694,10 @@
         <v>813</v>
       </c>
       <c r="E141" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F141" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5717,10 +5714,10 @@
         <v>813</v>
       </c>
       <c r="E142" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F142" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5737,10 +5734,10 @@
         <v>813</v>
       </c>
       <c r="E143" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F143" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5757,10 +5754,10 @@
         <v>813</v>
       </c>
       <c r="E144" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F144" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5777,10 +5774,10 @@
         <v>813</v>
       </c>
       <c r="E145" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F145" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5797,10 +5794,10 @@
         <v>813</v>
       </c>
       <c r="E146" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F146" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5817,10 +5814,10 @@
         <v>813</v>
       </c>
       <c r="E147" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F147" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5837,10 +5834,10 @@
         <v>813</v>
       </c>
       <c r="E148" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F148" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5860,7 +5857,7 @@
         <v>827</v>
       </c>
       <c r="F149" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5880,7 +5877,7 @@
         <v>827</v>
       </c>
       <c r="F150" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5900,7 +5897,7 @@
         <v>827</v>
       </c>
       <c r="F151" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5920,7 +5917,7 @@
         <v>827</v>
       </c>
       <c r="F152" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5940,7 +5937,7 @@
         <v>827</v>
       </c>
       <c r="F153" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5960,7 +5957,7 @@
         <v>827</v>
       </c>
       <c r="F154" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5977,10 +5974,10 @@
         <v>813</v>
       </c>
       <c r="E155" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F155" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6000,7 +5997,7 @@
         <v>827</v>
       </c>
       <c r="F156" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6017,10 +6014,10 @@
         <v>813</v>
       </c>
       <c r="E157" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F157" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6037,10 +6034,10 @@
         <v>813</v>
       </c>
       <c r="E158" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F158" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6057,10 +6054,10 @@
         <v>813</v>
       </c>
       <c r="E159" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F159" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6080,7 +6077,7 @@
         <v>827</v>
       </c>
       <c r="F160" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6097,10 +6094,10 @@
         <v>814</v>
       </c>
       <c r="E161" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F161" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6117,10 +6114,10 @@
         <v>814</v>
       </c>
       <c r="E162" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F162" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6137,10 +6134,10 @@
         <v>814</v>
       </c>
       <c r="E163" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F163" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6160,7 +6157,7 @@
         <v>827</v>
       </c>
       <c r="F164" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -6180,7 +6177,7 @@
         <v>827</v>
       </c>
       <c r="F165" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -6197,10 +6194,10 @@
         <v>814</v>
       </c>
       <c r="E166" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F166" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6217,10 +6214,10 @@
         <v>814</v>
       </c>
       <c r="E167" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F167" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6237,10 +6234,10 @@
         <v>814</v>
       </c>
       <c r="E168" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F168" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6260,7 +6257,7 @@
         <v>827</v>
       </c>
       <c r="F169" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -6277,10 +6274,10 @@
         <v>814</v>
       </c>
       <c r="E170" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F170" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -6297,10 +6294,10 @@
         <v>814</v>
       </c>
       <c r="E171" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F171" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6317,10 +6314,10 @@
         <v>814</v>
       </c>
       <c r="E172" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F172" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -6337,10 +6334,10 @@
         <v>814</v>
       </c>
       <c r="E173" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F173" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -6357,10 +6354,10 @@
         <v>815</v>
       </c>
       <c r="E174" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F174" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -6380,7 +6377,7 @@
         <v>827</v>
       </c>
       <c r="F175" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6397,10 +6394,10 @@
         <v>815</v>
       </c>
       <c r="E176" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F176" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6417,10 +6414,10 @@
         <v>815</v>
       </c>
       <c r="E177" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F177" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6440,7 +6437,7 @@
         <v>827</v>
       </c>
       <c r="F178" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6457,10 +6454,10 @@
         <v>815</v>
       </c>
       <c r="E179" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F179" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -6480,7 +6477,7 @@
         <v>827</v>
       </c>
       <c r="F180" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6500,7 +6497,7 @@
         <v>827</v>
       </c>
       <c r="F181" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -6517,10 +6514,10 @@
         <v>815</v>
       </c>
       <c r="E182" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F182" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -6540,7 +6537,7 @@
         <v>827</v>
       </c>
       <c r="F183" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -6560,7 +6557,7 @@
         <v>827</v>
       </c>
       <c r="F184" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -6577,10 +6574,10 @@
         <v>815</v>
       </c>
       <c r="E185" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F185" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -6597,10 +6594,10 @@
         <v>815</v>
       </c>
       <c r="E186" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F186" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -6617,10 +6614,10 @@
         <v>815</v>
       </c>
       <c r="E187" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F187" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -6637,10 +6634,10 @@
         <v>815</v>
       </c>
       <c r="E188" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F188" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -6657,10 +6654,10 @@
         <v>815</v>
       </c>
       <c r="E189" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F189" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -6677,10 +6674,10 @@
         <v>815</v>
       </c>
       <c r="E190" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F190" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -6700,7 +6697,7 @@
         <v>827</v>
       </c>
       <c r="F191" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -6720,7 +6717,7 @@
         <v>827</v>
       </c>
       <c r="F192" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -6740,7 +6737,7 @@
         <v>827</v>
       </c>
       <c r="F193" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -6760,7 +6757,7 @@
         <v>827</v>
       </c>
       <c r="F194" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -6777,10 +6774,10 @@
         <v>815</v>
       </c>
       <c r="E195" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F195" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6797,10 +6794,10 @@
         <v>816</v>
       </c>
       <c r="E196" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F196" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6817,10 +6814,10 @@
         <v>816</v>
       </c>
       <c r="E197" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F197" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6837,10 +6834,10 @@
         <v>816</v>
       </c>
       <c r="E198" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F198" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6857,10 +6854,10 @@
         <v>816</v>
       </c>
       <c r="E199" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F199" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6877,10 +6874,10 @@
         <v>816</v>
       </c>
       <c r="E200" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F200" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6897,10 +6894,10 @@
         <v>816</v>
       </c>
       <c r="E201" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F201" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -6917,10 +6914,10 @@
         <v>816</v>
       </c>
       <c r="E202" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F202" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6937,10 +6934,10 @@
         <v>816</v>
       </c>
       <c r="E203" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F203" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6957,10 +6954,10 @@
         <v>816</v>
       </c>
       <c r="E204" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F204" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6980,7 +6977,7 @@
         <v>827</v>
       </c>
       <c r="F205" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6997,10 +6994,10 @@
         <v>816</v>
       </c>
       <c r="E206" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F206" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -7017,10 +7014,10 @@
         <v>816</v>
       </c>
       <c r="E207" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F207" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -7037,10 +7034,10 @@
         <v>816</v>
       </c>
       <c r="E208" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F208" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -7057,10 +7054,10 @@
         <v>816</v>
       </c>
       <c r="E209" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F209" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -7077,10 +7074,10 @@
         <v>816</v>
       </c>
       <c r="E210" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F210" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -7097,10 +7094,10 @@
         <v>816</v>
       </c>
       <c r="E211" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F211" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -7117,10 +7114,10 @@
         <v>816</v>
       </c>
       <c r="E212" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F212" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -7137,10 +7134,10 @@
         <v>816</v>
       </c>
       <c r="E213" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F213" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -7157,10 +7154,10 @@
         <v>816</v>
       </c>
       <c r="E214" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F214" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -7177,10 +7174,10 @@
         <v>816</v>
       </c>
       <c r="E215" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F215" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -7197,10 +7194,10 @@
         <v>816</v>
       </c>
       <c r="E216" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F216" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -7217,10 +7214,10 @@
         <v>816</v>
       </c>
       <c r="E217" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F217" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -7237,10 +7234,10 @@
         <v>816</v>
       </c>
       <c r="E218" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F218" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -7257,10 +7254,10 @@
         <v>817</v>
       </c>
       <c r="E219" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F219" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -7277,10 +7274,10 @@
         <v>817</v>
       </c>
       <c r="E220" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F220" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -7297,10 +7294,10 @@
         <v>817</v>
       </c>
       <c r="E221" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F221" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -7317,10 +7314,10 @@
         <v>817</v>
       </c>
       <c r="E222" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F222" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -7337,10 +7334,10 @@
         <v>817</v>
       </c>
       <c r="E223" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F223" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -7357,10 +7354,10 @@
         <v>817</v>
       </c>
       <c r="E224" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F224" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -7377,10 +7374,10 @@
         <v>817</v>
       </c>
       <c r="E225" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F225" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -7397,10 +7394,10 @@
         <v>817</v>
       </c>
       <c r="E226" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F226" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -7417,10 +7414,10 @@
         <v>817</v>
       </c>
       <c r="E227" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F227" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -7437,10 +7434,10 @@
         <v>817</v>
       </c>
       <c r="E228" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F228" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -7457,10 +7454,10 @@
         <v>817</v>
       </c>
       <c r="E229" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F229" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -7477,10 +7474,10 @@
         <v>817</v>
       </c>
       <c r="E230" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F230" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -7497,10 +7494,10 @@
         <v>817</v>
       </c>
       <c r="E231" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F231" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -7517,10 +7514,10 @@
         <v>817</v>
       </c>
       <c r="E232" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F232" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -7537,10 +7534,10 @@
         <v>817</v>
       </c>
       <c r="E233" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F233" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -7557,10 +7554,10 @@
         <v>817</v>
       </c>
       <c r="E234" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F234" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -7577,10 +7574,10 @@
         <v>817</v>
       </c>
       <c r="E235" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F235" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -7597,10 +7594,10 @@
         <v>817</v>
       </c>
       <c r="E236" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F236" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -7617,10 +7614,10 @@
         <v>817</v>
       </c>
       <c r="E237" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F237" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -7637,10 +7634,10 @@
         <v>817</v>
       </c>
       <c r="E238" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F238" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -7657,10 +7654,10 @@
         <v>817</v>
       </c>
       <c r="E239" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F239" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -7677,10 +7674,10 @@
         <v>818</v>
       </c>
       <c r="E240" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F240" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -7697,10 +7694,10 @@
         <v>818</v>
       </c>
       <c r="E241" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F241" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -7717,10 +7714,10 @@
         <v>818</v>
       </c>
       <c r="E242" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F242" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -7737,10 +7734,10 @@
         <v>818</v>
       </c>
       <c r="E243" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F243" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -7757,10 +7754,10 @@
         <v>818</v>
       </c>
       <c r="E244" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F244" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -7777,10 +7774,10 @@
         <v>818</v>
       </c>
       <c r="E245" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F245" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -7797,10 +7794,10 @@
         <v>818</v>
       </c>
       <c r="E246" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F246" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -7817,10 +7814,10 @@
         <v>818</v>
       </c>
       <c r="E247" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F247" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -7837,10 +7834,10 @@
         <v>818</v>
       </c>
       <c r="E248" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F248" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7857,10 +7854,10 @@
         <v>818</v>
       </c>
       <c r="E249" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F249" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -7877,10 +7874,10 @@
         <v>818</v>
       </c>
       <c r="E250" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F250" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -7897,10 +7894,10 @@
         <v>818</v>
       </c>
       <c r="E251" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F251" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -7917,10 +7914,10 @@
         <v>818</v>
       </c>
       <c r="E252" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F252" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -7937,10 +7934,10 @@
         <v>818</v>
       </c>
       <c r="E253" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F253" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -7957,10 +7954,10 @@
         <v>818</v>
       </c>
       <c r="E254" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F254" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7977,10 +7974,10 @@
         <v>818</v>
       </c>
       <c r="E255" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F255" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -7997,10 +7994,10 @@
         <v>818</v>
       </c>
       <c r="E256" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F256" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -8017,10 +8014,10 @@
         <v>818</v>
       </c>
       <c r="E257" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F257" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -8037,10 +8034,10 @@
         <v>818</v>
       </c>
       <c r="E258" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F258" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -8057,10 +8054,10 @@
         <v>818</v>
       </c>
       <c r="E259" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F259" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -8077,10 +8074,10 @@
         <v>819</v>
       </c>
       <c r="E260" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F260" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -8097,10 +8094,10 @@
         <v>819</v>
       </c>
       <c r="E261" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F261" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -8117,10 +8114,10 @@
         <v>819</v>
       </c>
       <c r="E262" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F262" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -8137,10 +8134,10 @@
         <v>819</v>
       </c>
       <c r="E263" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F263" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -8157,10 +8154,10 @@
         <v>819</v>
       </c>
       <c r="E264" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F264" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -8177,10 +8174,10 @@
         <v>819</v>
       </c>
       <c r="E265" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F265" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -8197,10 +8194,10 @@
         <v>819</v>
       </c>
       <c r="E266" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F266" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -8217,10 +8214,10 @@
         <v>819</v>
       </c>
       <c r="E267" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F267" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -8237,10 +8234,10 @@
         <v>819</v>
       </c>
       <c r="E268" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F268" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -8257,10 +8254,10 @@
         <v>819</v>
       </c>
       <c r="E269" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F269" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -8277,10 +8274,10 @@
         <v>819</v>
       </c>
       <c r="E270" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F270" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -8297,10 +8294,10 @@
         <v>819</v>
       </c>
       <c r="E271" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F271" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -8317,10 +8314,10 @@
         <v>819</v>
       </c>
       <c r="E272" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F272" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -8337,10 +8334,10 @@
         <v>819</v>
       </c>
       <c r="E273" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F273" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -8357,10 +8354,10 @@
         <v>819</v>
       </c>
       <c r="E274" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F274" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -8377,10 +8374,10 @@
         <v>819</v>
       </c>
       <c r="E275" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F275" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -8397,10 +8394,10 @@
         <v>819</v>
       </c>
       <c r="E276" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F276" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -8417,10 +8414,10 @@
         <v>819</v>
       </c>
       <c r="E277" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F277" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -8437,10 +8434,10 @@
         <v>819</v>
       </c>
       <c r="E278" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F278" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -8457,10 +8454,10 @@
         <v>819</v>
       </c>
       <c r="E279" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F279" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -8477,10 +8474,10 @@
         <v>819</v>
       </c>
       <c r="E280" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F280" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -8497,10 +8494,10 @@
         <v>820</v>
       </c>
       <c r="E281" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F281" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -8517,10 +8514,10 @@
         <v>820</v>
       </c>
       <c r="E282" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F282" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -8537,10 +8534,10 @@
         <v>820</v>
       </c>
       <c r="E283" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F283" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -8557,10 +8554,10 @@
         <v>820</v>
       </c>
       <c r="E284" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F284" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -8577,10 +8574,10 @@
         <v>820</v>
       </c>
       <c r="E285" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F285" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -8597,10 +8594,10 @@
         <v>820</v>
       </c>
       <c r="E286" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F286" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -8617,10 +8614,10 @@
         <v>820</v>
       </c>
       <c r="E287" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F287" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -8637,10 +8634,10 @@
         <v>820</v>
       </c>
       <c r="E288" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F288" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -8657,10 +8654,10 @@
         <v>820</v>
       </c>
       <c r="E289" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F289" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -8677,10 +8674,10 @@
         <v>820</v>
       </c>
       <c r="E290" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F290" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -8697,10 +8694,10 @@
         <v>820</v>
       </c>
       <c r="E291" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F291" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -8717,10 +8714,10 @@
         <v>820</v>
       </c>
       <c r="E292" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F292" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -8737,10 +8734,10 @@
         <v>820</v>
       </c>
       <c r="E293" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F293" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -8757,10 +8754,10 @@
         <v>820</v>
       </c>
       <c r="E294" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F294" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -8777,10 +8774,10 @@
         <v>820</v>
       </c>
       <c r="E295" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F295" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -8797,10 +8794,10 @@
         <v>820</v>
       </c>
       <c r="E296" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F296" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -8817,10 +8814,10 @@
         <v>820</v>
       </c>
       <c r="E297" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F297" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -8837,10 +8834,10 @@
         <v>820</v>
       </c>
       <c r="E298" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F298" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -8857,10 +8854,10 @@
         <v>820</v>
       </c>
       <c r="E299" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F299" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -8877,10 +8874,10 @@
         <v>820</v>
       </c>
       <c r="E300" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F300" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -8897,10 +8894,10 @@
         <v>821</v>
       </c>
       <c r="E301" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F301" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -8917,10 +8914,10 @@
         <v>821</v>
       </c>
       <c r="E302" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F302" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -8937,10 +8934,10 @@
         <v>821</v>
       </c>
       <c r="E303" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F303" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -8957,10 +8954,10 @@
         <v>821</v>
       </c>
       <c r="E304" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F304" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -8977,10 +8974,10 @@
         <v>822</v>
       </c>
       <c r="E305" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F305" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -8997,10 +8994,10 @@
         <v>822</v>
       </c>
       <c r="E306" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F306" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -9017,10 +9014,10 @@
         <v>822</v>
       </c>
       <c r="E307" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F307" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -9037,10 +9034,10 @@
         <v>822</v>
       </c>
       <c r="E308" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F308" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -9057,10 +9054,10 @@
         <v>822</v>
       </c>
       <c r="E309" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F309" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -9077,10 +9074,10 @@
         <v>822</v>
       </c>
       <c r="E310" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F310" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -9097,10 +9094,10 @@
         <v>822</v>
       </c>
       <c r="E311" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F311" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -9117,10 +9114,10 @@
         <v>822</v>
       </c>
       <c r="E312" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F312" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -9137,10 +9134,10 @@
         <v>822</v>
       </c>
       <c r="E313" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F313" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -9157,10 +9154,10 @@
         <v>822</v>
       </c>
       <c r="E314" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F314" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -9177,10 +9174,10 @@
         <v>822</v>
       </c>
       <c r="E315" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F315" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -9197,10 +9194,10 @@
         <v>822</v>
       </c>
       <c r="E316" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F316" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -9217,10 +9214,10 @@
         <v>822</v>
       </c>
       <c r="E317" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F317" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -9237,10 +9234,10 @@
         <v>822</v>
       </c>
       <c r="E318" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F318" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -9257,10 +9254,10 @@
         <v>822</v>
       </c>
       <c r="E319" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F319" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -9277,10 +9274,10 @@
         <v>823</v>
       </c>
       <c r="E320" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F320" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -9297,10 +9294,10 @@
         <v>823</v>
       </c>
       <c r="E321" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F321" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -9317,10 +9314,10 @@
         <v>823</v>
       </c>
       <c r="E322" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F322" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -9337,10 +9334,10 @@
         <v>823</v>
       </c>
       <c r="E323" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F323" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -9357,10 +9354,10 @@
         <v>823</v>
       </c>
       <c r="E324" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F324" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -9377,10 +9374,10 @@
         <v>823</v>
       </c>
       <c r="E325" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F325" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -9397,10 +9394,10 @@
         <v>823</v>
       </c>
       <c r="E326" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F326" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -9417,10 +9414,10 @@
         <v>823</v>
       </c>
       <c r="E327" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F327" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -9437,10 +9434,10 @@
         <v>823</v>
       </c>
       <c r="E328" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F328" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -9457,10 +9454,10 @@
         <v>823</v>
       </c>
       <c r="E329" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F329" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -9477,10 +9474,10 @@
         <v>823</v>
       </c>
       <c r="E330" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F330" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -9497,10 +9494,10 @@
         <v>823</v>
       </c>
       <c r="E331" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F331" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -9517,10 +9514,10 @@
         <v>823</v>
       </c>
       <c r="E332" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F332" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -9537,10 +9534,10 @@
         <v>823</v>
       </c>
       <c r="E333" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F333" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -9557,10 +9554,10 @@
         <v>823</v>
       </c>
       <c r="E334" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F334" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -9577,10 +9574,10 @@
         <v>823</v>
       </c>
       <c r="E335" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F335" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -9597,10 +9594,10 @@
         <v>823</v>
       </c>
       <c r="E336" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F336" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -9617,10 +9614,10 @@
         <v>823</v>
       </c>
       <c r="E337" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F337" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -9637,10 +9634,10 @@
         <v>823</v>
       </c>
       <c r="E338" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F338" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -9657,10 +9654,10 @@
         <v>824</v>
       </c>
       <c r="E339" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F339" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -9677,10 +9674,10 @@
         <v>824</v>
       </c>
       <c r="E340" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F340" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -9697,10 +9694,10 @@
         <v>824</v>
       </c>
       <c r="E341" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F341" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -9717,10 +9714,10 @@
         <v>824</v>
       </c>
       <c r="E342" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F342" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -9737,10 +9734,10 @@
         <v>824</v>
       </c>
       <c r="E343" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F343" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -9757,10 +9754,10 @@
         <v>824</v>
       </c>
       <c r="E344" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F344" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -9777,10 +9774,10 @@
         <v>824</v>
       </c>
       <c r="E345" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F345" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -9797,10 +9794,10 @@
         <v>824</v>
       </c>
       <c r="E346" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F346" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -9817,10 +9814,10 @@
         <v>824</v>
       </c>
       <c r="E347" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F347" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -9837,10 +9834,10 @@
         <v>824</v>
       </c>
       <c r="E348" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F348" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -9857,10 +9854,10 @@
         <v>824</v>
       </c>
       <c r="E349" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F349" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -9877,10 +9874,10 @@
         <v>824</v>
       </c>
       <c r="E350" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F350" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -9897,10 +9894,10 @@
         <v>824</v>
       </c>
       <c r="E351" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F351" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -9917,10 +9914,10 @@
         <v>824</v>
       </c>
       <c r="E352" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F352" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -9937,10 +9934,10 @@
         <v>824</v>
       </c>
       <c r="E353" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F353" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -9957,10 +9954,10 @@
         <v>824</v>
       </c>
       <c r="E354" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F354" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -9977,10 +9974,10 @@
         <v>824</v>
       </c>
       <c r="E355" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F355" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -9997,10 +9994,10 @@
         <v>824</v>
       </c>
       <c r="E356" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F356" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -10017,10 +10014,10 @@
         <v>824</v>
       </c>
       <c r="E357" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F357" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -10037,10 +10034,10 @@
         <v>824</v>
       </c>
       <c r="E358" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F358" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -10057,10 +10054,10 @@
         <v>824</v>
       </c>
       <c r="E359" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F359" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -10077,10 +10074,10 @@
         <v>824</v>
       </c>
       <c r="E360" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F360" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -10097,10 +10094,10 @@
         <v>824</v>
       </c>
       <c r="E361" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F361" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -10117,10 +10114,10 @@
         <v>824</v>
       </c>
       <c r="E362" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F362" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -10137,10 +10134,10 @@
         <v>824</v>
       </c>
       <c r="E363" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F363" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -10157,10 +10154,10 @@
         <v>824</v>
       </c>
       <c r="E364" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F364" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -10177,10 +10174,10 @@
         <v>824</v>
       </c>
       <c r="E365" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F365" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -10197,10 +10194,10 @@
         <v>824</v>
       </c>
       <c r="E366" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F366" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -10217,10 +10214,10 @@
         <v>824</v>
       </c>
       <c r="E367" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F367" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -10237,10 +10234,10 @@
         <v>825</v>
       </c>
       <c r="E368" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F368" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -10257,10 +10254,10 @@
         <v>825</v>
       </c>
       <c r="E369" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F369" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -10277,10 +10274,10 @@
         <v>825</v>
       </c>
       <c r="E370" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F370" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -10297,10 +10294,10 @@
         <v>825</v>
       </c>
       <c r="E371" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F371" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -10317,10 +10314,10 @@
         <v>825</v>
       </c>
       <c r="E372" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F372" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -10337,10 +10334,10 @@
         <v>825</v>
       </c>
       <c r="E373" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F373" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -10357,10 +10354,10 @@
         <v>825</v>
       </c>
       <c r="E374" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F374" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -10377,10 +10374,10 @@
         <v>825</v>
       </c>
       <c r="E375" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F375" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -10397,10 +10394,10 @@
         <v>825</v>
       </c>
       <c r="E376" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F376" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -10417,10 +10414,10 @@
         <v>825</v>
       </c>
       <c r="E377" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F377" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -10437,10 +10434,10 @@
         <v>825</v>
       </c>
       <c r="E378" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F378" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -10457,10 +10454,10 @@
         <v>825</v>
       </c>
       <c r="E379" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F379" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -10477,10 +10474,10 @@
         <v>825</v>
       </c>
       <c r="E380" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F380" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -10497,10 +10494,10 @@
         <v>825</v>
       </c>
       <c r="E381" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F381" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -10517,10 +10514,10 @@
         <v>825</v>
       </c>
       <c r="E382" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F382" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -10537,10 +10534,10 @@
         <v>825</v>
       </c>
       <c r="E383" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F383" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -10557,10 +10554,10 @@
         <v>825</v>
       </c>
       <c r="E384" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F384" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -10577,10 +10574,10 @@
         <v>825</v>
       </c>
       <c r="E385" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F385" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -10597,10 +10594,10 @@
         <v>825</v>
       </c>
       <c r="E386" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F386" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -10617,10 +10614,10 @@
         <v>825</v>
       </c>
       <c r="E387" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F387" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -10637,10 +10634,10 @@
         <v>825</v>
       </c>
       <c r="E388" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F388" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -10657,10 +10654,10 @@
         <v>825</v>
       </c>
       <c r="E389" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F389" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -10677,10 +10674,10 @@
         <v>825</v>
       </c>
       <c r="E390" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F390" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -10697,10 +10694,10 @@
         <v>825</v>
       </c>
       <c r="E391" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F391" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -10717,10 +10714,10 @@
         <v>825</v>
       </c>
       <c r="E392" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F392" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -10737,10 +10734,10 @@
         <v>825</v>
       </c>
       <c r="E393" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F393" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -10757,10 +10754,10 @@
         <v>826</v>
       </c>
       <c r="E394" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F394" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
